--- a/data/hotels_by_city/Houston/Houston_shard_332.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_332.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d9135574-Reviews-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-NW-Hwy-290-Cypress.h12959813.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,537 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r576632945-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>9135574</t>
+  </si>
+  <si>
+    <t>576632945</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends wedding </t>
+  </si>
+  <si>
+    <t>This HIE is probably the best we've ever stayed at. From the minute we set foot on the property we were made to feel like family. Cheryl and her staff are so friendly and welcoming. They truly want you to have a great stay. I had been in contact with Cheryl prior to arrival and nothing was too much trouble for her. I was actually looking forward to meeting her in person as she'd been so wonderful. The hotel was super clean everywhere you went and the room was spacious, quiet and airy. The outside pool was crystal clear but too cold to go in when we were there. The fitness center is nicely equipped.  Breakfast had a wide variety of items and the eating area was always kept clean. I wouldn't hesitate to recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ashley T, General Manager at Holiday Inn Express &amp; Suites Houston NW - Hwy 290 Cypress, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>This HIE is probably the best we've ever stayed at. From the minute we set foot on the property we were made to feel like family. Cheryl and her staff are so friendly and welcoming. They truly want you to have a great stay. I had been in contact with Cheryl prior to arrival and nothing was too much trouble for her. I was actually looking forward to meeting her in person as she'd been so wonderful. The hotel was super clean everywhere you went and the room was spacious, quiet and airy. The outside pool was crystal clear but too cold to go in when we were there. The fitness center is nicely equipped.  Breakfast had a wide variety of items and the eating area was always kept clean. I wouldn't hesitate to recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r575467761-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575467761</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>All Around Outstanding!!</t>
+  </si>
+  <si>
+    <t>Used this hotel to accommodate family and friends attending our anniversary party.  Everyone raved about how nice it was and the staff bent over backwards to make sure everyone enjoyed their stay.  Great location too !</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r573705476-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573705476</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, breakfast was good &amp; the staff was remarkable!  I was acknowledged &amp; greeted by all the staff.  Front desk was the best!  Asst. GM Rita,  was very friendly. Great weekend! Good Job</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r563993566-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563993566</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Good for price</t>
+  </si>
+  <si>
+    <t>The room was nice.  The staff was very friendly. Right next to the bayou was beautiful. Pool was alright. Breakfast was alright to say the least. But for the price i would say Overall I would defiantly stay again.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r558848298-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558848298</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>The friendliest I've ever met</t>
+  </si>
+  <si>
+    <t>From the moment Auri checked me in I was treated like family.  I felt so welcomed and at home with everyone at the hotel.  Warm chocolate chip cookies greeted me at the end of a long work day ("I made 'em just for you!" Auri said, winking at me).  I can't say enough about these folks.  They are wonderful.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r556144660-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556144660</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Solo Stay for Work</t>
+  </si>
+  <si>
+    <t>Excellent accommodations. Staff very professional &amp; courteous. Breakfast was nice and they have a computer and printer avail for guests, which I did use 2 diff times. My stay was for 2 weeks. As a solo female, I felt very safe. Well lit free parking accommodations. Located near FBI headquarters!  Manager on duty was Gilbert Mora &amp; he made sure my stay was an enjoyable one!  I will definitely stay here again as well as recommend this location to others. Easy highway access!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r546206023-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546206023</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>My stay after Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>I would like to acknowledge Holiday Inn Express for the experience I had after Hurricane Harvey.  Not only were the hotel accommodations very nice - the staff, in particular, Kay &amp; Rita, were outstanding in making a horrible situation tolerable - and made my stay with Holiday Inn one that I will remember fondly - mainly because of Kay and Rita...well, ok, your breakfasts were very good as well, and I loved the amenities in the rooms.  They went way above the call of duty to help in whatever way they could to calm us during a very trying time.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r531027344-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531027344</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location isn't bad. It's hard to get off the 290 outbound. I would go up another exit and make the U turn. My room was nice. Hotel breakfast doesn't seem to change or very. The hotel staff is very friendly. There was only one person. Who seemed to be annoyed when people needed assistance. I would stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r528385449-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528385449</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing helpful staff made stay very enjoyable</t>
+  </si>
+  <si>
+    <t>The room was very clean  and comfortable.  The staff was extremely helpful and knowledgeable.  The front desk staff was very courteous and went out of their way to assist me in all facets of my stay.  In particular, Arey assisted me in securing a car service to the airport....she took it upon herself to make all the arrangements for me and for that , I was truly impressed and grateful.  She is a super star among the staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r501258253-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501258253</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Great Customer Service!</t>
+  </si>
+  <si>
+    <t>The Front Desk Staff Barb, Kiambi, Cheryl, and Rita took care of my son's basketball team this past weekend. They went above and beyond to accommodate us during our stay. Each and everyone of them were very personable with great personalities. The rooms were nice and extremely clean as well!  Whenever we are in the Houston area, we will come back to this hotel!  Thank you all soooo very much!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r500527131-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500527131</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently stayed at this location and I must say had an AMAZING experience from booking to check it and check out! Rita was extremely helpful and AN ABSOLUTE delight!! The breakfast was delicious! Can't wait till my next stay here next month when I'll be back in area! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r499965788-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499965788</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Best front desk staff (especially Kiambi) and director of sales (Cheryl Williams) ever!</t>
+  </si>
+  <si>
+    <t>Excellent service from all, especially Cheryl Williams and Kiambi.  Very attentive staff. Hotel is very nice and clean. Situated in a convinient location, with good restaurants nearby. Cheryl accommodated our 10 families (travel baseball team) with great group rates and lots of warmth and attention. Highly recommend this particular HIE.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r492560032-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492560032</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Expresss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great time at the Holiday Inn Express NW 290.  The staff was friendly and the property is nice and clean.   I definitely enjoyed my workout at the gym.   This is the best Holdiay Inn Express in Houston.  We will be back again!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r491258866-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491258866</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>A/C outage</t>
+  </si>
+  <si>
+    <t>Friendly, clean, (still a new establishment) and quiet.  Our A/c went out and we had to pack in a hurry and decided to stay at Holiday Inn Express on Huffmeister as we will register out of town guests there in August.   We are now able to give them a thumbs up for their five day stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r491113371-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491113371</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel! There were some delays with getting our rooms at check-in time but Rita was very apologetic and made sure everything went smoothly. She has great customer service skills and never hesitated to speak to us throughout our stay! We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r487549610-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487549610</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Just a wonderful work trip stay, many thanks to Rita!</t>
+  </si>
+  <si>
+    <t>I had a stay for about 3 weeks and the amenities, breakfast, noise levels, and cleanliness far surpassed my expectations. But, there's always the ever so present human element anywhere you stay- and I have to give Rita praise where praise is due. Rita was wonderfully accommodating and gracious as a host and clerk. I have never had someone that made sure I was this taken care of, happy, and comfortable like Rita, definitely the best part of my stay here! 100% will return just for the excellent customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ashley T, General Manager at Holiday Inn Express &amp; Suites Houston NW - Hwy 290 Cypress, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I had a stay for about 3 weeks and the amenities, breakfast, noise levels, and cleanliness far surpassed my expectations. But, there's always the ever so present human element anywhere you stay- and I have to give Rita praise where praise is due. Rita was wonderfully accommodating and gracious as a host and clerk. I have never had someone that made sure I was this taken care of, happy, and comfortable like Rita, definitely the best part of my stay here! 100% will return just for the excellent customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r481112545-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481112545</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Great new(er) HIE in Cypress.</t>
+  </si>
+  <si>
+    <t>Just by luck found this newer HIE.  Love the new design and hope the rest follow soon.  The exec suites in this HIE have been designed to flow well functionally but remain comfortable and inviting.  Really impressed with this design.  Usually stay at another property nearby, but happened here and have now found a new home when in this area.  Very nice features in the rooms, but what stands out most is the staff.  Kay and Rita are the best.  Both made me feel like I belong here.  Warm and accommodating without being fake.  Glad they're here. So far everything at this location has been on point.  I would definitely recommend this HIE and will most definitely be back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just by luck found this newer HIE.  Love the new design and hope the rest follow soon.  The exec suites in this HIE have been designed to flow well functionally but remain comfortable and inviting.  Really impressed with this design.  Usually stay at another property nearby, but happened here and have now found a new home when in this area.  Very nice features in the rooms, but what stands out most is the staff.  Kay and Rita are the best.  Both made me feel like I belong here.  Warm and accommodating without being fake.  Glad they're here. So far everything at this location has been on point.  I would definitely recommend this HIE and will most definitely be back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r478420569-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478420569</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome Staff and Coworkers!!</t>
+  </si>
+  <si>
+    <t>We are a gorgeous, clean, new property. Our staff is amazing! We are one big happy family whether it be at the front desk, breakfast, housekeeping, or management and that is something you cannot find everywhere! The management is constantly listening to customer reviews to keep the property new and updated. The breakfast buffet is actually real food and tastes great! Frances does a great job! Kay, Zach, Rita, and Shelbi are all amazing FDR and go out of their way to help our guests. Miss Cheryl is one of the best Director of Sales I have ever met and helps out anywhere she is needed at anytime. Well, TripAdvisor asked if I had been here recently- And I have. I am sitting here now :) MoreShow less</t>
+  </si>
+  <si>
+    <t>We are a gorgeous, clean, new property. Our staff is amazing! We are one big happy family whether it be at the front desk, breakfast, housekeeping, or management and that is something you cannot find everywhere! The management is constantly listening to customer reviews to keep the property new and updated. The breakfast buffet is actually real food and tastes great! Frances does a great job! Kay, Zach, Rita, and Shelbi are all amazing FDR and go out of their way to help our guests. Miss Cheryl is one of the best Director of Sales I have ever met and helps out anywhere she is needed at anytime. Well, TripAdvisor asked if I had been here recently- And I have. I am sitting here now :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r468760930-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468760930</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Very new! Very clean! Awesome staff!</t>
+  </si>
+  <si>
+    <t>Your stay includes free wifi and breakfast. The breakfast is your average buffet (eggs, a choice of meat, plenty of pastries to choose from, dry cereal, oatmeal, pancakes), but you are greeted with friendly faces every morning, and everytime you enter the hotel for that matter. The hotel is super clean!! I saw the lobby being cleaned at least 5 times in my 2 day stay.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r468423547-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468423547</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Nice, clean stay</t>
+  </si>
+  <si>
+    <t>Really great hotel. Everything is provided that you may need. The beds are are super soft. Check in and check out was very easy. The breakfast was all very good. The hotel is across the street from the hospital and there's a Starbucks down the road. They have security at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r466664442-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466664442</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Great Service, Great Place!</t>
+  </si>
+  <si>
+    <t>The Front Desk Receptionist, Rita, was very helpful and was very friendly. This is a good location around restaurants, shopping, and worship places. We had a good time while we were staying here. The employees were friendly and gave us the things we needed while we stayed at the hotel. It is a very clean environment and atmosphere, and it is very welcoming when you enter both the hotel and your hotel room. They have a fitness center, breakfast in the mornings, and a pool for the whole family to enjoy. Come and stay at this hotel, it's the one for you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r458402018-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458402018</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Quiet location with friendly staff</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is very new.  I was extremely impressed with the service and cleanliness of the hotel.  The breakfast had everything I wanted.  The hotel even has night security personnel patrolling the parking lot. I will definitely be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ashley T, General Manager at Holiday Inn Express &amp; Suites Houston NW - Hwy 290 Cypress, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is very new.  I was extremely impressed with the service and cleanliness of the hotel.  The breakfast had everything I wanted.  The hotel even has night security personnel patrolling the parking lot. I will definitely be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r454540151-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454540151</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>It's the first time we stayed in this hotel and we will stayed there again for sure. This hotel looks and smell like new, the room was very clean, room temperature was great. I always have to carry my pillow and this time I didn't use it; the bed was very comfortable too. The breakfast has more choices than other hotels and the ladies there were very friendly.Check in and check out took about 5 minutes. Will be our first option when visiting Cypress.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's the first time we stayed in this hotel and we will stayed there again for sure. This hotel looks and smell like new, the room was very clean, room temperature was great. I always have to carry my pillow and this time I didn't use it; the bed was very comfortable too. The breakfast has more choices than other hotels and the ladies there were very friendly.Check in and check out took about 5 minutes. Will be our first option when visiting Cypress.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r440505302-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440505302</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Late night Knocking</t>
+  </si>
+  <si>
+    <t>The hotel is nice enough, beautiful lobby nice people.  The room was comfortable clean and quiet.   But on my second night there I was awakened just before midnight by someone banging aggressively on my door.  I got up and went to answer, no one was there nor anywhere in the hall.   I figured someone had the wrong room, then went back to bed.    45 minutes later again someone was banging on my door, again no one there.  I called down to the front desk and they told me it was probably kids from the wedding party at the hotel and sorry about the interruption.   30 minutes later again someone banging on my door.  This time I called down and Jonathon at the front desk said there was nothing he could do about it because he did not have access to the security cameras.    Three times I was woken up that night and the front desk treated me like I was a nuisance for complaining about it.    I don't know if it was prankster kids or who it was that kept me awake that night I just know the hotel staff didn't seem at all worried about it.   I was very disappointed in the hotel and their lack of concern that someone was running through the halls waking up guests.  So if I go back to Houston I doubt I will be visiting their hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is nice enough, beautiful lobby nice people.  The room was comfortable clean and quiet.   But on my second night there I was awakened just before midnight by someone banging aggressively on my door.  I got up and went to answer, no one was there nor anywhere in the hall.   I figured someone had the wrong room, then went back to bed.    45 minutes later again someone was banging on my door, again no one there.  I called down to the front desk and they told me it was probably kids from the wedding party at the hotel and sorry about the interruption.   30 minutes later again someone banging on my door.  This time I called down and Jonathon at the front desk said there was nothing he could do about it because he did not have access to the security cameras.    Three times I was woken up that night and the front desk treated me like I was a nuisance for complaining about it.    I don't know if it was prankster kids or who it was that kept me awake that night I just know the hotel staff didn't seem at all worried about it.   I was very disappointed in the hotel and their lack of concern that someone was running through the halls waking up guests.  So if I go back to Houston I doubt I will be visiting their hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r423273260-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423273260</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable!</t>
+  </si>
+  <si>
+    <t>I would stay there again in a heartbeat.  We didn't get in until 2 am and the man at the desk was happy, friendly and helpful.  Checked us in really quick so we could head up to our room to get some sleep.  The whole place looks new and was a very pleasant stay.  Unfortunately, we slept through the free breakfast so I can't say anything about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>I would stay there again in a heartbeat.  We didn't get in until 2 am and the man at the desk was happy, friendly and helpful.  Checked us in really quick so we could head up to our room to get some sleep.  The whole place looks new and was a very pleasant stay.  Unfortunately, we slept through the free breakfast so I can't say anything about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r419190054-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419190054</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay in NW Houston/Cypress!</t>
+  </si>
+  <si>
+    <t>Great location just a couple blocks off freeway and near hospital. Seems almost brand new, very clean and modern. Good light breakfast included. Very reasonable price too!They check-in was quick and easy, and all employees that we encountered very personable and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Great location just a couple blocks off freeway and near hospital. Seems almost brand new, very clean and modern. Good light breakfast included. Very reasonable price too!They check-in was quick and easy, and all employees that we encountered very personable and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9135574-r414329582-Holiday_Inn_Express_Suites_Houston_NW_Hwy_290_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414329582</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>New and clean</t>
+  </si>
+  <si>
+    <t>This hotel is new, smells great and the front desk people are sharp and friendly.  Rooms are clean, walls and carpet are not stained and supplies were plentiful.  We requested two beds and our room was as requested.  The only negative factor was the built-in bench for luggage.  There is a shelf built above the bench that does not allow one to open their suitcase so the bench is basically un-usable.  There is no luggage rack other than this bench, so I have to assume this was a faux pas from the architect or designer.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel is new, smells great and the front desk people are sharp and friendly.  Rooms are clean, walls and carpet are not stained and supplies were plentiful.  We requested two beds and our room was as requested.  The only negative factor was the built-in bench for luggage.  There is a shelf built above the bench that does not allow one to open their suitcase so the bench is basically un-usable.  There is no luggage rack other than this bench, so I have to assume this was a faux pas from the architect or designer.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1072,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1104,1704 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>141</v>
+      </c>
+      <c r="X17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>193</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>203</v>
+      </c>
+      <c r="X26" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>211</v>
+      </c>
+      <c r="X27" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64740</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>211</v>
+      </c>
+      <c r="X28" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
